--- a/exports/PM_REVISIONS_APRIL_2025.xlsx
+++ b/exports/PM_REVISIONS_APRIL_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F479"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Change</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Source Column</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +495,11 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -516,6 +526,11 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,6 +557,11 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,6 +588,11 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +619,11 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -620,6 +650,11 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,6 +681,11 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -672,6 +712,11 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -698,6 +743,11 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -724,6 +774,11 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -750,6 +805,11 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -776,6 +836,11 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -802,6 +867,11 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -828,6 +898,11 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -854,6 +929,11 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -880,6 +960,11 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -906,6 +991,11 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -932,6 +1022,11 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -958,6 +1053,11 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -984,6 +1084,11 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1010,6 +1115,11 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1036,6 +1146,11 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1062,6 +1177,11 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1088,6 +1208,11 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1114,6 +1239,11 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1140,6 +1270,11 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1166,6 +1301,11 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1192,6 +1332,11 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1218,6 +1363,11 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1244,6 +1394,11 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1270,6 +1425,11 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1296,6 +1456,11 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1322,6 +1487,11 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1348,6 +1518,11 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1374,6 +1549,11 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1400,6 +1580,11 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1426,6 +1611,11 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1452,6 +1642,11 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1478,6 +1673,11 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1504,6 +1704,11 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1530,6 +1735,11 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1556,6 +1766,11 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1582,6 +1797,11 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1608,6 +1828,11 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1634,6 +1859,11 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1660,6 +1890,11 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1686,6 +1921,11 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1712,6 +1952,11 @@
       <c r="F49" t="n">
         <v>0</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1738,6 +1983,11 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1764,6 +2014,11 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1790,6 +2045,11 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1816,6 +2076,11 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1842,6 +2107,11 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1868,6 +2138,11 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1894,6 +2169,11 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1920,6 +2200,11 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1946,6 +2231,11 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1972,6 +2262,11 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1998,6 +2293,11 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2024,6 +2324,11 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2050,6 +2355,11 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2076,6 +2386,11 @@
       <c r="F63" t="n">
         <v>0</v>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2102,6 +2417,11 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2128,6 +2448,11 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2154,6 +2479,11 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2180,6 +2510,11 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2206,6 +2541,11 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2232,6 +2572,11 @@
       <c r="F69" t="n">
         <v>0</v>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2258,6 +2603,11 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2284,6 +2634,11 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2310,6 +2665,11 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2336,6 +2696,11 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2362,6 +2727,11 @@
       <c r="F74" t="n">
         <v>0</v>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2388,6 +2758,11 @@
       <c r="F75" t="n">
         <v>0</v>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2414,6 +2789,11 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2440,6 +2820,11 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2466,6 +2851,11 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2492,6 +2882,11 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2518,6 +2913,11 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2544,6 +2944,11 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2570,6 +2975,11 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2596,6 +3006,11 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2622,6 +3037,11 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2648,6 +3068,11 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2674,6 +3099,11 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2700,6 +3130,11 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2726,6 +3161,11 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2752,6 +3192,11 @@
       <c r="F89" t="n">
         <v>0</v>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2778,6 +3223,11 @@
       <c r="F90" t="n">
         <v>0</v>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2804,6 +3254,11 @@
       <c r="F91" t="n">
         <v>0</v>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2830,6 +3285,11 @@
       <c r="F92" t="n">
         <v>0</v>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2856,6 +3316,11 @@
       <c r="F93" t="n">
         <v>0</v>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2882,6 +3347,11 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2908,6 +3378,11 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2934,6 +3409,11 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2960,6 +3440,11 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2986,6 +3471,11 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3012,6 +3502,11 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3038,6 +3533,11 @@
       <c r="F100" t="n">
         <v>0</v>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3064,6 +3564,11 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3090,6 +3595,11 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3116,6 +3626,11 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3142,6 +3657,11 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3168,6 +3688,11 @@
       <c r="F105" t="n">
         <v>0</v>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3194,6 +3719,11 @@
       <c r="F106" t="n">
         <v>0</v>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3220,6 +3750,11 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3246,6 +3781,11 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3272,6 +3812,11 @@
       <c r="F109" t="n">
         <v>0</v>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3298,6 +3843,11 @@
       <c r="F110" t="n">
         <v>0</v>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3324,6 +3874,11 @@
       <c r="F111" t="n">
         <v>0</v>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3350,6 +3905,11 @@
       <c r="F112" t="n">
         <v>0</v>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3376,6 +3936,11 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3402,6 +3967,11 @@
       <c r="F114" t="n">
         <v>0</v>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3428,6 +3998,11 @@
       <c r="F115" t="n">
         <v>0</v>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3454,6 +4029,11 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3480,6 +4060,11 @@
       <c r="F117" t="n">
         <v>0</v>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3506,6 +4091,11 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3532,6 +4122,11 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3558,6 +4153,11 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3584,6 +4184,11 @@
       <c r="F121" t="n">
         <v>0</v>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3610,6 +4215,11 @@
       <c r="F122" t="n">
         <v>0</v>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3636,6 +4246,11 @@
       <c r="F123" t="n">
         <v>0</v>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3662,6 +4277,11 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3688,6 +4308,11 @@
       <c r="F125" t="n">
         <v>0</v>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3714,6 +4339,11 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3740,6 +4370,11 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3766,6 +4401,11 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3792,6 +4432,11 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3818,6 +4463,11 @@
       <c r="F130" t="n">
         <v>0</v>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3844,6 +4494,11 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3870,6 +4525,11 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3896,6 +4556,11 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3922,6 +4587,11 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3948,6 +4618,11 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3974,6 +4649,11 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4000,6 +4680,11 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4026,6 +4711,11 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4052,6 +4742,11 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4078,6 +4773,11 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4104,6 +4804,11 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4130,6 +4835,11 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4156,6 +4866,11 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4182,6 +4897,11 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4208,6 +4928,11 @@
       <c r="F145" t="n">
         <v>0</v>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4234,6 +4959,11 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4260,6 +4990,11 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4286,6 +5021,11 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4312,6 +5052,11 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4338,6 +5083,11 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4364,6 +5114,11 @@
       <c r="F151" t="n">
         <v>0</v>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4390,6 +5145,11 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4416,6 +5176,11 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4442,6 +5207,11 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4468,6 +5238,11 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4494,6 +5269,11 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4520,6 +5300,11 @@
       <c r="F157" t="n">
         <v>0</v>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4546,6 +5331,11 @@
       <c r="F158" t="n">
         <v>0</v>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4572,6 +5362,11 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4598,6 +5393,11 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4624,6 +5424,11 @@
       <c r="F161" t="n">
         <v>0</v>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4650,6 +5455,11 @@
       <c r="F162" t="n">
         <v>0</v>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4676,6 +5486,11 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4702,6 +5517,11 @@
       <c r="F164" t="n">
         <v>0</v>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4728,6 +5548,11 @@
       <c r="F165" t="n">
         <v>0</v>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4754,6 +5579,11 @@
       <c r="F166" t="n">
         <v>0</v>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4780,6 +5610,11 @@
       <c r="F167" t="n">
         <v>0</v>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4806,6 +5641,11 @@
       <c r="F168" t="n">
         <v>0</v>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4832,6 +5672,11 @@
       <c r="F169" t="n">
         <v>0</v>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4858,6 +5703,11 @@
       <c r="F170" t="n">
         <v>0</v>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4884,6 +5734,11 @@
       <c r="F171" t="n">
         <v>0</v>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4910,6 +5765,11 @@
       <c r="F172" t="n">
         <v>0</v>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4936,6 +5796,11 @@
       <c r="F173" t="n">
         <v>0</v>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4962,6 +5827,11 @@
       <c r="F174" t="n">
         <v>0</v>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4988,6 +5858,11 @@
       <c r="F175" t="n">
         <v>0</v>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5014,6 +5889,11 @@
       <c r="F176" t="n">
         <v>0</v>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5040,6 +5920,11 @@
       <c r="F177" t="n">
         <v>0</v>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5066,6 +5951,11 @@
       <c r="F178" t="n">
         <v>0</v>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5092,6 +5982,11 @@
       <c r="F179" t="n">
         <v>0</v>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5118,6 +6013,11 @@
       <c r="F180" t="n">
         <v>0</v>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5144,6 +6044,11 @@
       <c r="F181" t="n">
         <v>0</v>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5170,6 +6075,11 @@
       <c r="F182" t="n">
         <v>0</v>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5196,6 +6106,11 @@
       <c r="F183" t="n">
         <v>0</v>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5222,6 +6137,11 @@
       <c r="F184" t="n">
         <v>0</v>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5248,6 +6168,11 @@
       <c r="F185" t="n">
         <v>0</v>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5274,6 +6199,11 @@
       <c r="F186" t="n">
         <v>0</v>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5300,6 +6230,11 @@
       <c r="F187" t="n">
         <v>0</v>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5326,6 +6261,11 @@
       <c r="F188" t="n">
         <v>0</v>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5352,6 +6292,11 @@
       <c r="F189" t="n">
         <v>0</v>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5378,6 +6323,11 @@
       <c r="F190" t="n">
         <v>0</v>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5404,6 +6354,11 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5430,6 +6385,11 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5456,6 +6416,11 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5482,6 +6447,11 @@
       <c r="F194" t="n">
         <v>0</v>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5508,6 +6478,11 @@
       <c r="F195" t="n">
         <v>0</v>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5534,6 +6509,11 @@
       <c r="F196" t="n">
         <v>0</v>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5560,6 +6540,11 @@
       <c r="F197" t="n">
         <v>0</v>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5586,6 +6571,11 @@
       <c r="F198" t="n">
         <v>0</v>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5612,6 +6602,11 @@
       <c r="F199" t="n">
         <v>0</v>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5638,6 +6633,11 @@
       <c r="F200" t="n">
         <v>0</v>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5664,6 +6664,11 @@
       <c r="F201" t="n">
         <v>0</v>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5690,6 +6695,11 @@
       <c r="F202" t="n">
         <v>0</v>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5716,6 +6726,11 @@
       <c r="F203" t="n">
         <v>0</v>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5742,6 +6757,11 @@
       <c r="F204" t="n">
         <v>0</v>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5768,6 +6788,11 @@
       <c r="F205" t="n">
         <v>0</v>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5794,6 +6819,11 @@
       <c r="F206" t="n">
         <v>0</v>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5820,6 +6850,11 @@
       <c r="F207" t="n">
         <v>0</v>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5846,6 +6881,11 @@
       <c r="F208" t="n">
         <v>0</v>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5872,6 +6912,11 @@
       <c r="F209" t="n">
         <v>0</v>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5898,6 +6943,11 @@
       <c r="F210" t="n">
         <v>0</v>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5924,6 +6974,11 @@
       <c r="F211" t="n">
         <v>0</v>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5950,6 +7005,11 @@
       <c r="F212" t="n">
         <v>0</v>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5976,6 +7036,11 @@
       <c r="F213" t="n">
         <v>0</v>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6002,6 +7067,11 @@
       <c r="F214" t="n">
         <v>0</v>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6028,6 +7098,11 @@
       <c r="F215" t="n">
         <v>0</v>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6054,6 +7129,11 @@
       <c r="F216" t="n">
         <v>0</v>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6080,6 +7160,11 @@
       <c r="F217" t="n">
         <v>0</v>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6106,6 +7191,11 @@
       <c r="F218" t="n">
         <v>0</v>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6132,6 +7222,11 @@
       <c r="F219" t="n">
         <v>0</v>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6158,6 +7253,11 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6184,6 +7284,11 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6210,6 +7315,11 @@
       <c r="F222" t="n">
         <v>0</v>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6236,6 +7346,11 @@
       <c r="F223" t="n">
         <v>0</v>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6262,6 +7377,11 @@
       <c r="F224" t="n">
         <v>0</v>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6288,6 +7408,11 @@
       <c r="F225" t="n">
         <v>0</v>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6314,6 +7439,11 @@
       <c r="F226" t="n">
         <v>0</v>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6340,6 +7470,11 @@
       <c r="F227" t="n">
         <v>0</v>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6366,6 +7501,11 @@
       <c r="F228" t="n">
         <v>0</v>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6392,6 +7532,11 @@
       <c r="F229" t="n">
         <v>0</v>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6418,6 +7563,11 @@
       <c r="F230" t="n">
         <v>0</v>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6444,6 +7594,11 @@
       <c r="F231" t="n">
         <v>0</v>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6470,6 +7625,11 @@
       <c r="F232" t="n">
         <v>0</v>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6496,6 +7656,11 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6522,6 +7687,11 @@
       <c r="F234" t="n">
         <v>0</v>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6548,6 +7718,11 @@
       <c r="F235" t="n">
         <v>0</v>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6574,6 +7749,11 @@
       <c r="F236" t="n">
         <v>0</v>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6600,6 +7780,11 @@
       <c r="F237" t="n">
         <v>0</v>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6626,6 +7811,11 @@
       <c r="F238" t="n">
         <v>0</v>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6652,6 +7842,11 @@
       <c r="F239" t="n">
         <v>0</v>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6678,6 +7873,11 @@
       <c r="F240" t="n">
         <v>0</v>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6704,6 +7904,11 @@
       <c r="F241" t="n">
         <v>0</v>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6730,6 +7935,11 @@
       <c r="F242" t="n">
         <v>0</v>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6756,6 +7966,11 @@
       <c r="F243" t="n">
         <v>0</v>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6782,6 +7997,11 @@
       <c r="F244" t="n">
         <v>0</v>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6808,6 +8028,11 @@
       <c r="F245" t="n">
         <v>0</v>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6834,6 +8059,11 @@
       <c r="F246" t="n">
         <v>0</v>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6860,6 +8090,11 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6886,6 +8121,11 @@
       <c r="F248" t="n">
         <v>0</v>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6912,6 +8152,11 @@
       <c r="F249" t="n">
         <v>0</v>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6938,6 +8183,11 @@
       <c r="F250" t="n">
         <v>0</v>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6964,6 +8214,11 @@
       <c r="F251" t="n">
         <v>0</v>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6990,6 +8245,11 @@
       <c r="F252" t="n">
         <v>0</v>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7016,6 +8276,11 @@
       <c r="F253" t="n">
         <v>0</v>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7042,6 +8307,11 @@
       <c r="F254" t="n">
         <v>0</v>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7068,6 +8338,11 @@
       <c r="F255" t="n">
         <v>0</v>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7094,6 +8369,11 @@
       <c r="F256" t="n">
         <v>0</v>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7120,6 +8400,11 @@
       <c r="F257" t="n">
         <v>0</v>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7146,6 +8431,11 @@
       <c r="F258" t="n">
         <v>0</v>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7172,6 +8462,11 @@
       <c r="F259" t="n">
         <v>0</v>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7198,6 +8493,11 @@
       <c r="F260" t="n">
         <v>0</v>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7224,6 +8524,11 @@
       <c r="F261" t="n">
         <v>0</v>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7250,6 +8555,11 @@
       <c r="F262" t="n">
         <v>0</v>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7276,6 +8586,11 @@
       <c r="F263" t="n">
         <v>0</v>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7302,6 +8617,11 @@
       <c r="F264" t="n">
         <v>0</v>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7328,6 +8648,11 @@
       <c r="F265" t="n">
         <v>0</v>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7354,6 +8679,11 @@
       <c r="F266" t="n">
         <v>0</v>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7380,6 +8710,11 @@
       <c r="F267" t="n">
         <v>0</v>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7406,6 +8741,11 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7432,6 +8772,11 @@
       <c r="F269" t="n">
         <v>0</v>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7458,6 +8803,11 @@
       <c r="F270" t="n">
         <v>0</v>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7484,6 +8834,11 @@
       <c r="F271" t="n">
         <v>0</v>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7510,6 +8865,11 @@
       <c r="F272" t="n">
         <v>0</v>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7536,6 +8896,11 @@
       <c r="F273" t="n">
         <v>0</v>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7562,6 +8927,11 @@
       <c r="F274" t="n">
         <v>0</v>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7588,6 +8958,11 @@
       <c r="F275" t="n">
         <v>0</v>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7614,6 +8989,11 @@
       <c r="F276" t="n">
         <v>0</v>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7640,6 +9020,11 @@
       <c r="F277" t="n">
         <v>0</v>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7666,6 +9051,11 @@
       <c r="F278" t="n">
         <v>0</v>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7692,6 +9082,11 @@
       <c r="F279" t="n">
         <v>0</v>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7718,6 +9113,11 @@
       <c r="F280" t="n">
         <v>0</v>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7744,6 +9144,11 @@
       <c r="F281" t="n">
         <v>0</v>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7770,6 +9175,11 @@
       <c r="F282" t="n">
         <v>0</v>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7796,6 +9206,11 @@
       <c r="F283" t="n">
         <v>0</v>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7822,6 +9237,11 @@
       <c r="F284" t="n">
         <v>0</v>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7848,6 +9268,11 @@
       <c r="F285" t="n">
         <v>0</v>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7874,6 +9299,11 @@
       <c r="F286" t="n">
         <v>0</v>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7900,6 +9330,11 @@
       <c r="F287" t="n">
         <v>0</v>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7926,6 +9361,11 @@
       <c r="F288" t="n">
         <v>0</v>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7952,6 +9392,11 @@
       <c r="F289" t="n">
         <v>0</v>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7978,6 +9423,11 @@
       <c r="F290" t="n">
         <v>0</v>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8004,6 +9454,11 @@
       <c r="F291" t="n">
         <v>0</v>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8030,6 +9485,11 @@
       <c r="F292" t="n">
         <v>0</v>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8056,6 +9516,11 @@
       <c r="F293" t="n">
         <v>0</v>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8082,6 +9547,11 @@
       <c r="F294" t="n">
         <v>0</v>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8108,6 +9578,11 @@
       <c r="F295" t="n">
         <v>0</v>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8134,6 +9609,11 @@
       <c r="F296" t="n">
         <v>0</v>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8160,6 +9640,11 @@
       <c r="F297" t="n">
         <v>0</v>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8186,6 +9671,11 @@
       <c r="F298" t="n">
         <v>0</v>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8212,6 +9702,11 @@
       <c r="F299" t="n">
         <v>0</v>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8238,6 +9733,11 @@
       <c r="F300" t="n">
         <v>0</v>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8264,6 +9764,11 @@
       <c r="F301" t="n">
         <v>0</v>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8290,6 +9795,11 @@
       <c r="F302" t="n">
         <v>0</v>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8316,6 +9826,11 @@
       <c r="F303" t="n">
         <v>0</v>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8342,6 +9857,11 @@
       <c r="F304" t="n">
         <v>0</v>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8368,6 +9888,11 @@
       <c r="F305" t="n">
         <v>0</v>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8394,6 +9919,11 @@
       <c r="F306" t="n">
         <v>0</v>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8420,6 +9950,11 @@
       <c r="F307" t="n">
         <v>0</v>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8446,6 +9981,11 @@
       <c r="F308" t="n">
         <v>0</v>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8472,6 +10012,11 @@
       <c r="F309" t="n">
         <v>0</v>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8498,6 +10043,11 @@
       <c r="F310" t="n">
         <v>0</v>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8524,6 +10074,11 @@
       <c r="F311" t="n">
         <v>0</v>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8550,6 +10105,11 @@
       <c r="F312" t="n">
         <v>0</v>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8576,6 +10136,11 @@
       <c r="F313" t="n">
         <v>0</v>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8602,6 +10167,11 @@
       <c r="F314" t="n">
         <v>0</v>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8628,6 +10198,11 @@
       <c r="F315" t="n">
         <v>0</v>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8654,6 +10229,11 @@
       <c r="F316" t="n">
         <v>0</v>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8680,6 +10260,11 @@
       <c r="F317" t="n">
         <v>0</v>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8706,6 +10291,11 @@
       <c r="F318" t="n">
         <v>0</v>
       </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8732,6 +10322,11 @@
       <c r="F319" t="n">
         <v>0</v>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8758,6 +10353,11 @@
       <c r="F320" t="n">
         <v>0</v>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8784,6 +10384,11 @@
       <c r="F321" t="n">
         <v>0</v>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8810,6 +10415,11 @@
       <c r="F322" t="n">
         <v>0</v>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8836,6 +10446,11 @@
       <c r="F323" t="n">
         <v>0</v>
       </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8862,6 +10477,11 @@
       <c r="F324" t="n">
         <v>0</v>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8888,6 +10508,11 @@
       <c r="F325" t="n">
         <v>0</v>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8914,6 +10539,11 @@
       <c r="F326" t="n">
         <v>0</v>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8940,6 +10570,11 @@
       <c r="F327" t="n">
         <v>0</v>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8966,6 +10601,11 @@
       <c r="F328" t="n">
         <v>0</v>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8992,6 +10632,11 @@
       <c r="F329" t="n">
         <v>0</v>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9018,6 +10663,11 @@
       <c r="F330" t="n">
         <v>0</v>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9044,6 +10694,11 @@
       <c r="F331" t="n">
         <v>0</v>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9070,6 +10725,11 @@
       <c r="F332" t="n">
         <v>0</v>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9096,6 +10756,11 @@
       <c r="F333" t="n">
         <v>0</v>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9122,6 +10787,11 @@
       <c r="F334" t="n">
         <v>0</v>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9148,6 +10818,11 @@
       <c r="F335" t="n">
         <v>0</v>
       </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9174,6 +10849,11 @@
       <c r="F336" t="n">
         <v>0</v>
       </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9200,6 +10880,11 @@
       <c r="F337" t="n">
         <v>0</v>
       </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9226,6 +10911,11 @@
       <c r="F338" t="n">
         <v>0</v>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9252,6 +10942,11 @@
       <c r="F339" t="n">
         <v>0</v>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9278,6 +10973,11 @@
       <c r="F340" t="n">
         <v>0</v>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9304,6 +11004,11 @@
       <c r="F341" t="n">
         <v>0</v>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9330,6 +11035,11 @@
       <c r="F342" t="n">
         <v>0</v>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9356,6 +11066,11 @@
       <c r="F343" t="n">
         <v>0</v>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9382,6 +11097,11 @@
       <c r="F344" t="n">
         <v>0</v>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9408,6 +11128,11 @@
       <c r="F345" t="n">
         <v>0</v>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9434,6 +11159,11 @@
       <c r="F346" t="n">
         <v>0</v>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9460,6 +11190,11 @@
       <c r="F347" t="n">
         <v>0</v>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9486,6 +11221,11 @@
       <c r="F348" t="n">
         <v>0</v>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9512,6 +11252,11 @@
       <c r="F349" t="n">
         <v>0</v>
       </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9538,6 +11283,11 @@
       <c r="F350" t="n">
         <v>0</v>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9564,6 +11314,11 @@
       <c r="F351" t="n">
         <v>0</v>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9590,6 +11345,11 @@
       <c r="F352" t="n">
         <v>0</v>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9616,6 +11376,11 @@
       <c r="F353" t="n">
         <v>0</v>
       </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9642,6 +11407,11 @@
       <c r="F354" t="n">
         <v>0</v>
       </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -9668,6 +11438,11 @@
       <c r="F355" t="n">
         <v>0</v>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -9694,6 +11469,11 @@
       <c r="F356" t="n">
         <v>0</v>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9720,6 +11500,11 @@
       <c r="F357" t="n">
         <v>0</v>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9746,6 +11531,11 @@
       <c r="F358" t="n">
         <v>0</v>
       </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9772,6 +11562,11 @@
       <c r="F359" t="n">
         <v>0</v>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9798,6 +11593,11 @@
       <c r="F360" t="n">
         <v>0</v>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9824,6 +11624,11 @@
       <c r="F361" t="n">
         <v>0</v>
       </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9850,6 +11655,11 @@
       <c r="F362" t="n">
         <v>0</v>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9876,6 +11686,11 @@
       <c r="F363" t="n">
         <v>0</v>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9902,6 +11717,11 @@
       <c r="F364" t="n">
         <v>0</v>
       </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9928,6 +11748,11 @@
       <c r="F365" t="n">
         <v>0</v>
       </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9954,6 +11779,11 @@
       <c r="F366" t="n">
         <v>0</v>
       </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9980,6 +11810,11 @@
       <c r="F367" t="n">
         <v>0</v>
       </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10006,6 +11841,11 @@
       <c r="F368" t="n">
         <v>0</v>
       </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10032,6 +11872,11 @@
       <c r="F369" t="n">
         <v>0</v>
       </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10058,6 +11903,11 @@
       <c r="F370" t="n">
         <v>0</v>
       </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10084,6 +11934,11 @@
       <c r="F371" t="n">
         <v>0</v>
       </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10110,6 +11965,11 @@
       <c r="F372" t="n">
         <v>0</v>
       </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10136,6 +11996,11 @@
       <c r="F373" t="n">
         <v>0</v>
       </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10162,6 +12027,11 @@
       <c r="F374" t="n">
         <v>0</v>
       </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10188,6 +12058,11 @@
       <c r="F375" t="n">
         <v>0</v>
       </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10214,6 +12089,11 @@
       <c r="F376" t="n">
         <v>0</v>
       </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10240,6 +12120,11 @@
       <c r="F377" t="n">
         <v>0</v>
       </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10266,6 +12151,11 @@
       <c r="F378" t="n">
         <v>0</v>
       </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10292,6 +12182,11 @@
       <c r="F379" t="n">
         <v>0</v>
       </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10318,6 +12213,11 @@
       <c r="F380" t="n">
         <v>0</v>
       </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10344,6 +12244,11 @@
       <c r="F381" t="n">
         <v>0</v>
       </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10370,6 +12275,11 @@
       <c r="F382" t="n">
         <v>0</v>
       </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10396,6 +12306,11 @@
       <c r="F383" t="n">
         <v>0</v>
       </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10422,6 +12337,11 @@
       <c r="F384" t="n">
         <v>0</v>
       </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10448,6 +12368,11 @@
       <c r="F385" t="n">
         <v>0</v>
       </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10474,6 +12399,11 @@
       <c r="F386" t="n">
         <v>0</v>
       </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10500,6 +12430,11 @@
       <c r="F387" t="n">
         <v>0</v>
       </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10526,6 +12461,11 @@
       <c r="F388" t="n">
         <v>0</v>
       </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10552,6 +12492,11 @@
       <c r="F389" t="n">
         <v>0</v>
       </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10578,6 +12523,11 @@
       <c r="F390" t="n">
         <v>0</v>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10604,6 +12554,11 @@
       <c r="F391" t="n">
         <v>0</v>
       </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -10630,6 +12585,11 @@
       <c r="F392" t="n">
         <v>0</v>
       </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -10656,6 +12616,11 @@
       <c r="F393" t="n">
         <v>0</v>
       </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -10682,6 +12647,11 @@
       <c r="F394" t="n">
         <v>0</v>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -10708,6 +12678,11 @@
       <c r="F395" t="n">
         <v>0</v>
       </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -10734,6 +12709,11 @@
       <c r="F396" t="n">
         <v>0</v>
       </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -10760,6 +12740,11 @@
       <c r="F397" t="n">
         <v>0</v>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -10786,6 +12771,11 @@
       <c r="F398" t="n">
         <v>0</v>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -10812,6 +12802,11 @@
       <c r="F399" t="n">
         <v>0</v>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -10838,6 +12833,11 @@
       <c r="F400" t="n">
         <v>0</v>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -10864,6 +12864,11 @@
       <c r="F401" t="n">
         <v>0</v>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -10890,6 +12895,11 @@
       <c r="F402" t="n">
         <v>0</v>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -10916,6 +12926,11 @@
       <c r="F403" t="n">
         <v>0</v>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -10942,6 +12957,11 @@
       <c r="F404" t="n">
         <v>0</v>
       </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -10968,6 +12988,11 @@
       <c r="F405" t="n">
         <v>0</v>
       </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -10994,6 +13019,11 @@
       <c r="F406" t="n">
         <v>0</v>
       </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11020,6 +13050,11 @@
       <c r="F407" t="n">
         <v>0</v>
       </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11046,6 +13081,11 @@
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11072,6 +13112,11 @@
       <c r="F409" t="n">
         <v>0</v>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11098,6 +13143,11 @@
       <c r="F410" t="n">
         <v>0</v>
       </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11124,6 +13174,11 @@
       <c r="F411" t="n">
         <v>0</v>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11150,6 +13205,11 @@
       <c r="F412" t="n">
         <v>0</v>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11176,6 +13236,11 @@
       <c r="F413" t="n">
         <v>0</v>
       </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11202,6 +13267,11 @@
       <c r="F414" t="n">
         <v>0</v>
       </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11228,6 +13298,11 @@
       <c r="F415" t="n">
         <v>0</v>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11254,6 +13329,11 @@
       <c r="F416" t="n">
         <v>0</v>
       </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11280,6 +13360,11 @@
       <c r="F417" t="n">
         <v>0</v>
       </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11306,6 +13391,11 @@
       <c r="F418" t="n">
         <v>0</v>
       </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11332,6 +13422,11 @@
       <c r="F419" t="n">
         <v>0</v>
       </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11358,6 +13453,11 @@
       <c r="F420" t="n">
         <v>0</v>
       </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11384,6 +13484,11 @@
       <c r="F421" t="n">
         <v>0</v>
       </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11410,6 +13515,11 @@
       <c r="F422" t="n">
         <v>0</v>
       </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11436,6 +13546,11 @@
       <c r="F423" t="n">
         <v>0</v>
       </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11462,6 +13577,11 @@
       <c r="F424" t="n">
         <v>0</v>
       </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11488,6 +13608,11 @@
       <c r="F425" t="n">
         <v>0</v>
       </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11514,6 +13639,11 @@
       <c r="F426" t="n">
         <v>0</v>
       </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11540,6 +13670,11 @@
       <c r="F427" t="n">
         <v>0</v>
       </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11566,6 +13701,11 @@
       <c r="F428" t="n">
         <v>0</v>
       </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -11592,6 +13732,11 @@
       <c r="F429" t="n">
         <v>0</v>
       </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -11618,6 +13763,11 @@
       <c r="F430" t="n">
         <v>0</v>
       </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -11644,6 +13794,11 @@
       <c r="F431" t="n">
         <v>0</v>
       </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -11670,6 +13825,11 @@
       <c r="F432" t="n">
         <v>0</v>
       </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -11696,6 +13856,11 @@
       <c r="F433" t="n">
         <v>0</v>
       </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -11722,6 +13887,11 @@
       <c r="F434" t="n">
         <v>0</v>
       </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -11748,6 +13918,11 @@
       <c r="F435" t="n">
         <v>0</v>
       </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -11774,6 +13949,11 @@
       <c r="F436" t="n">
         <v>0</v>
       </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -11800,6 +13980,11 @@
       <c r="F437" t="n">
         <v>0</v>
       </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -11826,6 +14011,11 @@
       <c r="F438" t="n">
         <v>0</v>
       </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -11852,6 +14042,11 @@
       <c r="F439" t="n">
         <v>0</v>
       </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -11878,6 +14073,11 @@
       <c r="F440" t="n">
         <v>0</v>
       </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -11904,6 +14104,11 @@
       <c r="F441" t="n">
         <v>0</v>
       </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -11930,6 +14135,11 @@
       <c r="F442" t="n">
         <v>0</v>
       </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -11956,6 +14166,11 @@
       <c r="F443" t="n">
         <v>0</v>
       </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -11982,6 +14197,11 @@
       <c r="F444" t="n">
         <v>0</v>
       </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12008,6 +14228,11 @@
       <c r="F445" t="n">
         <v>0</v>
       </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12034,6 +14259,11 @@
       <c r="F446" t="n">
         <v>0</v>
       </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12060,6 +14290,11 @@
       <c r="F447" t="n">
         <v>0</v>
       </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12086,6 +14321,11 @@
       <c r="F448" t="n">
         <v>0</v>
       </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12112,6 +14352,11 @@
       <c r="F449" t="n">
         <v>0</v>
       </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12138,6 +14383,11 @@
       <c r="F450" t="n">
         <v>0</v>
       </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12164,6 +14414,11 @@
       <c r="F451" t="n">
         <v>0</v>
       </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12190,6 +14445,11 @@
       <c r="F452" t="n">
         <v>0</v>
       </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12216,6 +14476,11 @@
       <c r="F453" t="n">
         <v>0</v>
       </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12242,6 +14507,11 @@
       <c r="F454" t="n">
         <v>0</v>
       </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12268,6 +14538,11 @@
       <c r="F455" t="n">
         <v>0</v>
       </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12294,6 +14569,11 @@
       <c r="F456" t="n">
         <v>0</v>
       </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12320,6 +14600,11 @@
       <c r="F457" t="n">
         <v>0</v>
       </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12346,6 +14631,11 @@
       <c r="F458" t="n">
         <v>0</v>
       </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12372,6 +14662,11 @@
       <c r="F459" t="n">
         <v>0</v>
       </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12398,6 +14693,11 @@
       <c r="F460" t="n">
         <v>0</v>
       </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -12424,6 +14724,11 @@
       <c r="F461" t="n">
         <v>0</v>
       </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -12450,6 +14755,11 @@
       <c r="F462" t="n">
         <v>0</v>
       </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12476,6 +14786,11 @@
       <c r="F463" t="n">
         <v>0</v>
       </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12502,6 +14817,11 @@
       <c r="F464" t="n">
         <v>0</v>
       </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12528,6 +14848,11 @@
       <c r="F465" t="n">
         <v>0</v>
       </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12554,6 +14879,11 @@
       <c r="F466" t="n">
         <v>0</v>
       </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12580,6 +14910,11 @@
       <c r="F467" t="n">
         <v>0</v>
       </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12606,6 +14941,11 @@
       <c r="F468" t="n">
         <v>0</v>
       </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -12632,6 +14972,11 @@
       <c r="F469" t="n">
         <v>0</v>
       </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12658,6 +15003,11 @@
       <c r="F470" t="n">
         <v>0</v>
       </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12684,6 +15034,11 @@
       <c r="F471" t="n">
         <v>0</v>
       </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -12710,6 +15065,11 @@
       <c r="F472" t="n">
         <v>0</v>
       </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -12736,6 +15096,11 @@
       <c r="F473" t="n">
         <v>0</v>
       </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12762,6 +15127,11 @@
       <c r="F474" t="n">
         <v>0</v>
       </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12788,6 +15158,11 @@
       <c r="F475" t="n">
         <v>0</v>
       </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -12814,6 +15189,11 @@
       <c r="F476" t="n">
         <v>0</v>
       </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -12840,6 +15220,11 @@
       <c r="F477" t="n">
         <v>0</v>
       </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -12866,6 +15251,11 @@
       <c r="F478" t="n">
         <v>0</v>
       </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -12891,6 +15281,11 @@
       </c>
       <c r="F479" t="n">
         <v>0</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/exports/PM_REVISIONS_APRIL_2025.xlsx
+++ b/exports/PM_REVISIONS_APRIL_2025.xlsx
@@ -5667,10 +5667,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5698,10 +5698,10 @@
         <v>0.04</v>
       </c>
       <c r="E170" t="n">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5729,10 +5729,10 @@
         <v>0.06</v>
       </c>
       <c r="E171" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5760,10 +5760,10 @@
         <v>0.04</v>
       </c>
       <c r="E172" t="n">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6349,10 +6349,10 @@
         <v>0.1</v>
       </c>
       <c r="E191" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
